--- a/Relevant Documents/Dataset_statistics.xlsx
+++ b/Relevant Documents/Dataset_statistics.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\Relevant Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/Relevant Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Director</t>
   </si>
@@ -63,6 +69,15 @@
   </si>
   <si>
     <t>Percentage of total emails</t>
+  </si>
+  <si>
+    <t>Number of People</t>
+  </si>
+  <si>
+    <t>Emails Pad</t>
+  </si>
+  <si>
+    <t>People Pad</t>
   </si>
 </sst>
 </file>
@@ -132,37 +147,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -182,96 +166,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -359,28 +253,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.49119472149353505</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1381013888703937E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.505998908078885E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0396953273765929E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16892152815691705</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16304579410628919</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -486,37 +358,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -536,96 +377,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -713,28 +464,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.37182437904967602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10813309935205184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.9774568034557231E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8210043196544276E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18202281317494601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23003509719222462</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -840,37 +569,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -890,118 +588,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.0327977295520985E-4"/>
-                  <c:y val="-3.6956945518796025E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1088,28 +675,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.43191644824604331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9631779697942712E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.740120796101275E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9310952760814334E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17542751228406525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19631209905012167</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1197,6 +762,1218 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>Class Distribution of Dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total emails</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>257728.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53484.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52153.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11523.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104679.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117141.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>People Pad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="0"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of emails sent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of all emails sent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of emails received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of all emails received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of total emails</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2115100576"/>
+        <c:axId val="-2132483904"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Emails Pad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of People</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2120891616"/>
+        <c:axId val="-2129972464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2115100576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2132483904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2132483904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t>Total Emails</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115100576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2129972464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t>Number of People</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2120891616"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2120891616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2129972464"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1321,6 +2098,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2846,6 +3663,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2948,7 +4268,7 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2965,6 +4285,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>264161</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3019,9 +4369,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3054,9 +4404,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3236,24 +4586,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="31" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3275,8 +4629,17 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3302,8 +4665,11 @@
         <f>H2/$H$9</f>
         <v>0.43191644824604331</v>
       </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3329,8 +4695,11 @@
         <f t="shared" ref="I3:I7" si="3">H3/$H$9</f>
         <v>8.9631779697942712E-2</v>
       </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3356,8 +4725,11 @@
         <f t="shared" si="3"/>
         <v>8.740120796101275E-2</v>
       </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3383,8 +4755,11 @@
         <f t="shared" si="3"/>
         <v>1.9310952760814334E-2</v>
       </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3410,8 +4785,11 @@
         <f t="shared" si="3"/>
         <v>0.17542751228406525</v>
       </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3437,8 +4815,11 @@
         <f t="shared" si="3"/>
         <v>0.19631209905012167</v>
       </c>
+      <c r="M7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>SUM(B2:B7)</f>
         <v>300388</v>

--- a/Relevant Documents/Dataset_statistics.xlsx
+++ b/Relevant Documents/Dataset_statistics.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -219,7 +218,7 @@
                   <c:v>32216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1782.8</c:v>
+                  <c:v>1659.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7450.4285714285716</c:v>
@@ -760,6 +759,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="342084320"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1693,19 +1693,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="31" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
@@ -1763,14 +1763,14 @@
       </c>
       <c r="C2" s="1">
         <f>B2/$B$9</f>
-        <v>0.49119472149353505</v>
+        <v>0.49714949964621452</v>
       </c>
       <c r="E2">
         <v>110179</v>
       </c>
       <c r="F2" s="1">
         <f>E2/$E$9</f>
-        <v>0.37182437904967602</v>
+        <v>0.37195492478461661</v>
       </c>
       <c r="H2">
         <f>SUM(B2,E2)</f>
@@ -1778,10 +1778,10 @@
       </c>
       <c r="I2" s="1">
         <f>H2/$H$9</f>
-        <v>0.43191644824604331</v>
+        <v>0.4346128032431375</v>
       </c>
       <c r="P2" s="2">
-        <f>H2/S2</f>
+        <f t="shared" ref="P2:P7" si="0">H2/S2</f>
         <v>32216</v>
       </c>
       <c r="S2">
@@ -1793,30 +1793,30 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21442</v>
+        <v>17844</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C7" si="0">B3/$B$9</f>
-        <v>7.1381013888703937E-2</v>
+        <f t="shared" ref="C3:C7" si="1">B3/$B$9</f>
+        <v>6.0123319518851713E-2</v>
       </c>
       <c r="E3">
-        <v>32042</v>
+        <v>31938</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="1">E3/$E$9</f>
-        <v>0.10813309935205184</v>
+        <f t="shared" ref="F3:F7" si="2">E3/$E$9</f>
+        <v>0.10781996921165636</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="2">SUM(B3,E3)</f>
-        <v>53484</v>
+        <f t="shared" ref="H3:H7" si="3">SUM(B3,E3)</f>
+        <v>49782</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I7" si="3">H3/$H$9</f>
-        <v>8.9631779697942712E-2</v>
+        <f t="shared" ref="I3:I7" si="4">H3/$H$9</f>
+        <v>8.3948560385561019E-2</v>
       </c>
       <c r="P3" s="2">
-        <f>H3/S3</f>
-        <v>1782.8</v>
+        <f t="shared" si="0"/>
+        <v>1659.4</v>
       </c>
       <c r="S3">
         <v>30</v>
@@ -1830,26 +1830,26 @@
         <v>25551</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.505998908078885E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.6091175578692003E-2</v>
       </c>
       <c r="E4">
         <v>26602</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9774568034557231E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.9806087449698868E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52153</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>8.740120796101275E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.7946833590216628E-2</v>
       </c>
       <c r="P4" s="2">
-        <f>H4/S4</f>
+        <f t="shared" si="0"/>
         <v>7450.4285714285716</v>
       </c>
       <c r="S4">
@@ -1864,26 +1864,26 @@
         <v>6127</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0396953273765929E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0644226557498566E-2</v>
       </c>
       <c r="E5">
         <v>5396</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8210043196544276E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8216436654333323E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11523</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9310952760814334E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9431506595211517E-2</v>
       </c>
       <c r="P5" s="2">
-        <f>H5/S5</f>
+        <f t="shared" si="0"/>
         <v>5761.5</v>
       </c>
       <c r="S5">
@@ -1898,26 +1898,26 @@
         <v>50742</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16892152815691705</v>
+        <f t="shared" si="1"/>
+        <v>0.17096937228343273</v>
       </c>
       <c r="E6">
         <v>53937</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18202281317494601</v>
+        <f t="shared" si="2"/>
+        <v>0.18208672050125585</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104679</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="3"/>
-        <v>0.17542751228406525</v>
+        <f t="shared" si="4"/>
+        <v>0.17652266587521881</v>
       </c>
       <c r="P6" s="2">
-        <f>H6/S6</f>
+        <f t="shared" si="0"/>
         <v>20935.8</v>
       </c>
       <c r="S6">
@@ -1932,26 +1932,26 @@
         <v>48977</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16304579410628919</v>
+        <f t="shared" si="1"/>
+        <v>0.16502240641531049</v>
       </c>
       <c r="E7">
         <v>68164</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23003509719222462</v>
+        <f t="shared" si="2"/>
+        <v>0.23011586139843898</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>117141</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.19631209905012167</v>
+        <f t="shared" si="4"/>
+        <v>0.19753763031065452</v>
       </c>
       <c r="P7" s="2">
-        <f>H7/S7</f>
+        <f t="shared" si="0"/>
         <v>6507.833333333333</v>
       </c>
       <c r="S7">
@@ -1961,15 +1961,15 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>SUM(B2:B7)</f>
-        <v>300388</v>
+        <v>296790</v>
       </c>
       <c r="E9">
         <f>SUM(E2:E7)</f>
-        <v>296320</v>
+        <v>296216</v>
       </c>
       <c r="H9">
         <f>SUM(H2:H7)</f>
-        <v>596708</v>
+        <v>593006</v>
       </c>
     </row>
   </sheetData>

--- a/Relevant Documents/Dataset_statistics.xlsx
+++ b/Relevant Documents/Dataset_statistics.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -174,7 +174,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -404,9 +404,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1398,7 +1396,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
@@ -1694,7 +1692,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
